--- a/biology/Médecine/Pierre_Pollak/Pierre_Pollak.xlsx
+++ b/biology/Médecine/Pierre_Pollak/Pierre_Pollak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Pollak, né le 1er janvier 1950 à Grenoble, est un neurologue français, spécialiste de la maladie de Parkinson.
 Pierre Pollak a fait sa formation médicale et neurologique à l’université de Grenoble. Cette formation a été complétée à Paris auprès du Pr Agid et dans plusieurs sites nord-américains.
 Après un doctorat de médecine en 1978, Pierre Pollak a poursuivi sa carrière hospitalo-universitaire au CHU de Grenoble où il a été nommé professeur de neurologie en 1992 et a créé une unité médicale entièrement consacrée aux troubles du mouvement. .
-De 2010 à 2015, il a été chef du service de neurologie des Hôpitaux Universitaires de Genève. Pierre Pollak a participé à la publication de plus de 250 articles dans le domaine des troubles du mouvement, notamment le tremblement essentiel et la maladie de Parkinson à laquelle il a consacré un livre dédié aux patients et à leur famille. Pierre Pollak a reçu plusieurs récompenses dont le Grand Prix de la fondation pour la recherche médicale décerné par l’Académie des Sciences[1].
-En collaboration avec Alim Louis Benabid, Il a été un pionnier de la stimulation cérébrale profonde dans le traitement de la maladie de Parkinson[2].
+De 2010 à 2015, il a été chef du service de neurologie des Hôpitaux Universitaires de Genève. Pierre Pollak a participé à la publication de plus de 250 articles dans le domaine des troubles du mouvement, notamment le tremblement essentiel et la maladie de Parkinson à laquelle il a consacré un livre dédié aux patients et à leur famille. Pierre Pollak a reçu plusieurs récompenses dont le Grand Prix de la fondation pour la recherche médicale décerné par l’Académie des Sciences.
+En collaboration avec Alim Louis Benabid, Il a été un pionnier de la stimulation cérébrale profonde dans le traitement de la maladie de Parkinson.
 </t>
         </is>
       </c>
